--- a/views/nilaitest.xlsx
+++ b/views/nilaitest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnold\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kp_websiteECC\views\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0441C6-E397-4FE3-9E00-8A33AE63FC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE5D45E-1681-4E9F-95A5-5C2DB19AF3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,46 +25,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>name 1</t>
+    <t>NRP</t>
   </si>
   <si>
-    <t>name 2</t>
+    <t>NAMA</t>
   </si>
   <si>
-    <t>name 3</t>
-  </si>
-  <si>
-    <t>name 4</t>
-  </si>
-  <si>
-    <t>name 5</t>
-  </si>
-  <si>
-    <t>name 6</t>
-  </si>
-  <si>
-    <t>name 7</t>
-  </si>
-  <si>
-    <t>name 8</t>
-  </si>
-  <si>
-    <t>name 9</t>
-  </si>
-  <si>
-    <t>name 10</t>
-  </si>
-  <si>
-    <t>name 11</t>
+    <t>NILAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +50,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,128 +378,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>217180384</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>217180385</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>217180386</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>217180387</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>217180388</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>217180389</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>217180390</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>217180391</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>217180392</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>217180393</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>217180394</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>